--- a/DEV/Microservicios-Product-app/Plan-all-deatail-controller/US3_CP_DEV.xlsx
+++ b/DEV/Microservicios-Product-app/Plan-all-deatail-controller/US3_CP_DEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\Microservicios-Product-app\Plan-all-deatail-controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2CDB1-B8E0-4EED-93E5-2F3D79D9584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700978C0-F164-4F36-B956-4D567C6D78B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7989457-68F4-4A2A-B67F-64262A68E569}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sprint</t>
   </si>
@@ -72,34 +72,10 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>1.Acceder por medio de token
-2.Configurar accesos al postman</t>
-  </si>
-  <si>
     <t>E001</t>
   </si>
   <si>
     <t>CP001</t>
-  </si>
-  <si>
-    <t>Registro</t>
-  </si>
-  <si>
-    <t>Validacion de data</t>
-  </si>
-  <si>
-    <t>Validadcion de data de vehiculo</t>
-  </si>
-  <si>
-    <t>Se podrá seleccionar el
- modelo del vehículo de acuerdo a la marca que corresponda.</t>
-  </si>
-  <si>
-    <t>Se logro seleccionar el
- modelo del vehículo de acuerdo a la marca que corresponda.</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>Richar López</t>
@@ -117,16 +93,33 @@
  CP</t>
   </si>
   <si>
-    <t>E002</t>
-  </si>
-  <si>
-    <t>CP002</t>
-  </si>
-  <si>
     <t>US3</t>
   </si>
   <si>
     <t>DEV</t>
+  </si>
+  <si>
+    <t>1.Acceder a la pagina de Swagger 
+2.Abrir el aplicativo Postman y consumir el microservicio.</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Validar detalles del Plan</t>
+  </si>
+  <si>
+    <t>Validación de informacion de registro 
+detalle del plan</t>
+  </si>
+  <si>
+    <t>Se debe mostrar los registros de Plan_all_detail en la BD, al consumir el servicio GET. "plan-all-detail"</t>
+  </si>
+  <si>
+    <t>Se muestra los registros de Plan_all_detail en la BD, al consumir el servicio GET. "plan-all-detail"</t>
+  </si>
+  <si>
+    <t>FALLO</t>
   </si>
 </sst>
 </file>
@@ -538,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEFDFD0-32E2-4D6C-ACEB-3E52EFAD76E5}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +547,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="29.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.21875" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" customWidth="1"/>
     <col min="13" max="13" width="20.5546875" customWidth="1"/>
@@ -566,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -578,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -609,99 +602,51 @@
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>CONCATENATE(F2,G2)</f>
         <v>E001CP001</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="5">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f>CONCATENATE(F3,G3)</f>
-        <v>E002CP002</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="5">
         <v>45394</v>
       </c>
     </row>
